--- a/data/trans_orig/P17_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P17_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>108833</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90338</v>
+        <v>89202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130639</v>
+        <v>127674</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.187174136742952</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1553654426502481</v>
+        <v>0.153412818445774</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2246767691769803</v>
+        <v>0.2195768492460888</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>206</v>
@@ -765,19 +765,19 @@
         <v>213856</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189893</v>
+        <v>188617</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>242404</v>
+        <v>238898</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2318641825561996</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2058833239798867</v>
+        <v>0.2045002283243913</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.262815643985559</v>
+        <v>0.2590148171911488</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>311</v>
@@ -786,19 +786,19 @@
         <v>322689</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>293216</v>
+        <v>291417</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>355857</v>
+        <v>357305</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2145843655346898</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1949854941828602</v>
+        <v>0.1937886395529862</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2366405486559479</v>
+        <v>0.2376038553280861</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>472620</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>450814</v>
+        <v>453779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>491115</v>
+        <v>492251</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.812825863257048</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7753232308230195</v>
+        <v>0.7804231507539112</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8446345573497518</v>
+        <v>0.846587181554226</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>679</v>
@@ -836,19 +836,19 @@
         <v>708477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>679929</v>
+        <v>683435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>732440</v>
+        <v>733716</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7681358174438004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7371843560144413</v>
+        <v>0.7409851828088513</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7941166760201133</v>
+        <v>0.7954997716756088</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1145</v>
@@ -857,19 +857,19 @@
         <v>1181097</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1147929</v>
+        <v>1146481</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1210570</v>
+        <v>1212369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7854156344653103</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7633594513440519</v>
+        <v>0.7623961446719139</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8050145058171397</v>
+        <v>0.8062113604470139</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>235224</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>208922</v>
+        <v>209979</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>263684</v>
+        <v>263003</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2192283540865423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1947149999327713</v>
+        <v>0.1956999251168269</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2457535345106936</v>
+        <v>0.2451183552639025</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>352</v>
@@ -982,19 +982,19 @@
         <v>359023</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>327084</v>
+        <v>328043</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>388098</v>
+        <v>388868</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3398030116110288</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3095738323800368</v>
+        <v>0.3104819271126713</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3673213735892331</v>
+        <v>0.3680505979754382</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>583</v>
@@ -1003,19 +1003,19 @@
         <v>594247</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>552401</v>
+        <v>550679</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>636856</v>
+        <v>636623</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2790514122038891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2594013181785176</v>
+        <v>0.2585923163366378</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2990604935389897</v>
+        <v>0.2989509845456839</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>837738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>809278</v>
+        <v>809959</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>864040</v>
+        <v>862983</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7807716459134577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7542464654893063</v>
+        <v>0.7548816447360974</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8052850000672287</v>
+        <v>0.804300074883173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>675</v>
@@ -1053,19 +1053,19 @@
         <v>697539</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>668464</v>
+        <v>667694</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>729478</v>
+        <v>728519</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6601969883889712</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6326786264107669</v>
+        <v>0.6319494020245613</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6904261676199632</v>
+        <v>0.689518072887328</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1495</v>
@@ -1074,19 +1074,19 @@
         <v>1535277</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1492668</v>
+        <v>1492901</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1577123</v>
+        <v>1578845</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7209485877961109</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7009395064610099</v>
+        <v>0.7010490154543165</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7405986818214823</v>
+        <v>0.7414076836633622</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>292922</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>263818</v>
+        <v>264290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>322176</v>
+        <v>322125</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.261165453693718</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2352169116596554</v>
+        <v>0.2356380538473342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2872481485358507</v>
+        <v>0.2872027918407501</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>318</v>
@@ -1199,19 +1199,19 @@
         <v>322290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>294525</v>
+        <v>292988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>349469</v>
+        <v>352600</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3242546843404809</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2963209089282581</v>
+        <v>0.2947747690075636</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3515997746470743</v>
+        <v>0.3547499885834964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>605</v>
@@ -1220,19 +1220,19 @@
         <v>615211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>571571</v>
+        <v>573160</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>658550</v>
+        <v>661009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2908066168784587</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2701783489463475</v>
+        <v>0.2709289971919572</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3112927071556998</v>
+        <v>0.3124549289396213</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>828672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>799418</v>
+        <v>799469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>857776</v>
+        <v>857304</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.738834546306282</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.71275185146415</v>
+        <v>0.71279720815925</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7647830883403447</v>
+        <v>0.7643619461526663</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>664</v>
@@ -1270,19 +1270,19 @@
         <v>671650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>644471</v>
+        <v>641340</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>699415</v>
+        <v>700952</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6757453156595191</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6484002253529256</v>
+        <v>0.6452500114165035</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7036790910717418</v>
+        <v>0.7052252309924362</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1480</v>
@@ -1291,19 +1291,19 @@
         <v>1500323</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1456984</v>
+        <v>1454525</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1543963</v>
+        <v>1542374</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7091933831215413</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6887072928443002</v>
+        <v>0.6875450710603787</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7298216510536534</v>
+        <v>0.7290710028080428</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>124019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105940</v>
+        <v>103140</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143759</v>
+        <v>141677</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.278437653686824</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2378479409867801</v>
+        <v>0.2315631167936978</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3227574596700481</v>
+        <v>0.3180832618897276</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>129</v>
@@ -1416,19 +1416,19 @@
         <v>128957</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>111123</v>
+        <v>112150</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>146026</v>
+        <v>148711</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3790349744658508</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3266163174096648</v>
+        <v>0.329633394394682</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4292039541489744</v>
+        <v>0.4370948602088898</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>251</v>
@@ -1437,19 +1437,19 @@
         <v>252976</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>227637</v>
+        <v>228542</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>281120</v>
+        <v>279653</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3220021349389703</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2897500485298942</v>
+        <v>0.2909012548945425</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.357825136451945</v>
+        <v>0.3559578714135374</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>321390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>301650</v>
+        <v>303732</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>339469</v>
+        <v>342269</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.721562346313176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6772425403299519</v>
+        <v>0.6819167381102723</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7621520590132199</v>
+        <v>0.7684368832063021</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>209</v>
@@ -1487,19 +1487,19 @@
         <v>211268</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>194199</v>
+        <v>191514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>229102</v>
+        <v>228075</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6209650255341491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5707960458510256</v>
+        <v>0.5629051397911102</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6733836825903352</v>
+        <v>0.6703666056053179</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>521</v>
@@ -1508,19 +1508,19 @@
         <v>532658</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>504514</v>
+        <v>505981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>557997</v>
+        <v>557092</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6779978650610297</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6421748635480551</v>
+        <v>0.6440421285864625</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7102499514701057</v>
+        <v>0.7090987451054575</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>760997</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>717238</v>
+        <v>709155</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>808939</v>
+        <v>805203</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2362304237002968</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2226465271041163</v>
+        <v>0.220137503425746</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2511128103773406</v>
+        <v>0.2499528213715433</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1005</v>
@@ -1633,19 +1633,19 @@
         <v>1024126</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>970077</v>
+        <v>972298</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1080369</v>
+        <v>1081450</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3091178031772975</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2928040728032123</v>
+        <v>0.2934743769150898</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.326093940650299</v>
+        <v>0.3264201762413455</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1750</v>
@@ -1654,19 +1654,19 @@
         <v>1785123</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1717953</v>
+        <v>1713850</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1859640</v>
+        <v>1858796</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2731852175891507</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2629059293729152</v>
+        <v>0.2622779818226743</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2845889089085867</v>
+        <v>0.2844596855563492</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2460421</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2412479</v>
+        <v>2416215</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2504180</v>
+        <v>2512263</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7637695762997032</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7488871896226595</v>
+        <v>0.7500471786284569</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7773534728958839</v>
+        <v>0.7798624965742542</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2227</v>
@@ -1704,19 +1704,19 @@
         <v>2288934</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2232691</v>
+        <v>2231610</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2342983</v>
+        <v>2340762</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6908821968227026</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6739060593497009</v>
+        <v>0.6735798237586544</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7071959271967877</v>
+        <v>0.7065256230849102</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4641</v>
@@ -1725,19 +1725,19 @@
         <v>4749355</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4674838</v>
+        <v>4675682</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4816525</v>
+        <v>4820628</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7268147824108493</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7154110910914139</v>
+        <v>0.7155403144436511</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7370940706270849</v>
+        <v>0.7377220181773259</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>266785</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>241432</v>
+        <v>238327</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>296497</v>
+        <v>297953</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2558120814976418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2315014893011978</v>
+        <v>0.2285247538587239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2843022916401126</v>
+        <v>0.2856986730905854</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>315</v>
@@ -2090,19 +2090,19 @@
         <v>339987</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>310708</v>
+        <v>311423</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>373881</v>
+        <v>374245</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3038664875105109</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2776982954756007</v>
+        <v>0.2783374541939777</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3341591058226177</v>
+        <v>0.334484813330916</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>567</v>
@@ -2111,19 +2111,19 @@
         <v>606772</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>561220</v>
+        <v>561662</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>647000</v>
+        <v>651774</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2806837303330417</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2596119265659851</v>
+        <v>0.2598166610505501</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2992927623810578</v>
+        <v>0.3015012273814366</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>776109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>746397</v>
+        <v>744941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>801462</v>
+        <v>804567</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7441879185023582</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7156977083598876</v>
+        <v>0.7143013269094148</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7684985106988023</v>
+        <v>0.7714752461412764</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>715</v>
@@ -2161,19 +2161,19 @@
         <v>778883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>744989</v>
+        <v>744625</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>808162</v>
+        <v>807447</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6961335124894891</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6658408941773823</v>
+        <v>0.6655151866690842</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7223017045243995</v>
+        <v>0.7216625458060223</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1440</v>
@@ -2182,19 +2182,19 @@
         <v>1554992</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1514764</v>
+        <v>1509990</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1600544</v>
+        <v>1600102</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7193162696669583</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7007072376189422</v>
+        <v>0.6984987726185631</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7403880734340149</v>
+        <v>0.7401833389494499</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>267571</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>238651</v>
+        <v>238522</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>297401</v>
+        <v>296706</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2741471629493918</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2445164627464959</v>
+        <v>0.2443842221916712</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3047104555909889</v>
+        <v>0.3039976044815958</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>331</v>
@@ -2307,19 +2307,19 @@
         <v>355099</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>323768</v>
+        <v>324180</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>386342</v>
+        <v>384495</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3251408179877889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2964527849198083</v>
+        <v>0.2968303678764326</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3537473432203151</v>
+        <v>0.3520567817507989</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>582</v>
@@ -2328,19 +2328,19 @@
         <v>622671</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>579721</v>
+        <v>581461</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>670406</v>
+        <v>666125</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3010756383722563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2803082443412033</v>
+        <v>0.2811495719781987</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3241568854319924</v>
+        <v>0.3220865638544805</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>708442</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>678612</v>
+        <v>679307</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>737362</v>
+        <v>737491</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7258528370506082</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6952895444090111</v>
+        <v>0.6960023955184043</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7554835372535041</v>
+        <v>0.7556157778083288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>687</v>
@@ -2378,19 +2378,19 @@
         <v>737041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>705798</v>
+        <v>707645</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>768372</v>
+        <v>767960</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6748591820122111</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.646252656779685</v>
+        <v>0.647943218249202</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7035472150801918</v>
+        <v>0.7031696321235674</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1359</v>
@@ -2399,19 +2399,19 @@
         <v>1445483</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1397748</v>
+        <v>1402029</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1488433</v>
+        <v>1486693</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6989243616277437</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6758431145680077</v>
+        <v>0.6779134361455196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7196917556587972</v>
+        <v>0.7188504280218013</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>190656</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165619</v>
+        <v>165618</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>216757</v>
+        <v>215194</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2154022286388603</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.187116079945222</v>
+        <v>0.1871145964642488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2448916066588231</v>
+        <v>0.2431260257392549</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>268</v>
@@ -2524,19 +2524,19 @@
         <v>282847</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>257156</v>
+        <v>256051</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>310596</v>
+        <v>311592</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3229595937320683</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2936250432894923</v>
+        <v>0.2923635256603251</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3546446090418472</v>
+        <v>0.3557817858513476</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>450</v>
@@ -2545,19 +2545,19 @@
         <v>473502</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>437524</v>
+        <v>436274</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>513515</v>
+        <v>513150</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2688962965111213</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2484647328689877</v>
+        <v>0.2477548148805722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2916190550589248</v>
+        <v>0.2914115862193347</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>694459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>668358</v>
+        <v>669921</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>719496</v>
+        <v>719497</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7845977713611397</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7551083933411769</v>
+        <v>0.7568739742607453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8128839200547779</v>
+        <v>0.8128854035357512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>553</v>
@@ -2595,19 +2595,19 @@
         <v>592949</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>565200</v>
+        <v>564204</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>618640</v>
+        <v>619745</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6770404062679317</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6453553909581529</v>
+        <v>0.6442182141486523</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7063749567105078</v>
+        <v>0.7076364743396747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1201</v>
@@ -2616,19 +2616,19 @@
         <v>1287409</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1247396</v>
+        <v>1247761</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1323387</v>
+        <v>1324637</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7311037034888787</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7083809449410748</v>
+        <v>0.7085884137806654</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7515352671310123</v>
+        <v>0.7522451851194278</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>135659</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114857</v>
+        <v>114056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>159004</v>
+        <v>155194</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2696881991846492</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2283337809128823</v>
+        <v>0.2267405116937217</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3160977236563635</v>
+        <v>0.3085224318742449</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>170</v>
@@ -2741,19 +2741,19 @@
         <v>189153</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>168081</v>
+        <v>168962</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>210429</v>
+        <v>212099</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4177992314155369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3712551922700494</v>
+        <v>0.373201626295954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4647944217248092</v>
+        <v>0.4684836390233935</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>293</v>
@@ -2762,19 +2762,19 @@
         <v>324812</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>293004</v>
+        <v>295100</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>355383</v>
+        <v>358719</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3398472953329699</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3065667434936379</v>
+        <v>0.3087603384516444</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3718340027639673</v>
+        <v>0.375323999902466</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>367364</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344019</v>
+        <v>347829</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>388166</v>
+        <v>388967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7303118008153509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6839022763436367</v>
+        <v>0.6914775681257549</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7716662190871179</v>
+        <v>0.7732594883062782</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>242</v>
@@ -2812,19 +2812,19 @@
         <v>263583</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>242307</v>
+        <v>240637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>284655</v>
+        <v>283774</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5822007685844631</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5352055782751909</v>
+        <v>0.5315163609766069</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6287448077299506</v>
+        <v>0.6267983737040461</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>580</v>
@@ -2833,19 +2833,19 @@
         <v>630946</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>600375</v>
+        <v>597039</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>662754</v>
+        <v>660658</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.66015270466703</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6281659972360327</v>
+        <v>0.624676000097534</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6934332565063621</v>
+        <v>0.6912396615483556</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>860671</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>812188</v>
+        <v>808114</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>916055</v>
+        <v>909491</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2526151511787265</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.23838489995656</v>
+        <v>0.2371891178121024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2688709009670702</v>
+        <v>0.2669441384988458</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1084</v>
@@ -2958,19 +2958,19 @@
         <v>1167085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1120141</v>
+        <v>1111068</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1237132</v>
+        <v>1229531</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3297279204812083</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.316464905613177</v>
+        <v>0.3139016437558652</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3495177253377969</v>
+        <v>0.347370198931228</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1892</v>
@@ -2979,19 +2979,19 @@
         <v>2027757</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1946203</v>
+        <v>1948534</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2106366</v>
+        <v>2101494</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2919069458618263</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2801668125601672</v>
+        <v>0.2805023692659198</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3032231692893454</v>
+        <v>0.3025218045758024</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2546374</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2490990</v>
+        <v>2497554</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2594857</v>
+        <v>2598931</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7473848488212735</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7311290990329299</v>
+        <v>0.7330558615011542</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7616151000434399</v>
+        <v>0.7628108821878979</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2197</v>
@@ -3029,19 +3029,19 @@
         <v>2372456</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2302409</v>
+        <v>2310010</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2419400</v>
+        <v>2428473</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6702720795187916</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6504822746622031</v>
+        <v>0.652629801068772</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6835350943868231</v>
+        <v>0.6860983562441351</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4580</v>
@@ -3050,19 +3050,19 @@
         <v>4918829</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4840220</v>
+        <v>4845092</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5000383</v>
+        <v>4998052</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7080930541381737</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6967768307106545</v>
+        <v>0.6974781954241974</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7198331874398326</v>
+        <v>0.7194976307340797</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>215702</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>189986</v>
+        <v>191342</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>243490</v>
+        <v>244407</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1914179794155004</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1685968190444823</v>
+        <v>0.1698000455081011</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2160774119190575</v>
+        <v>0.2168915102573776</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>269</v>
@@ -3415,19 +3415,19 @@
         <v>278461</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>249384</v>
+        <v>249056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>310522</v>
+        <v>310163</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2215333375748104</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1984011561298646</v>
+        <v>0.1981397652734498</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2470404866333656</v>
+        <v>0.2467548809497259</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>469</v>
@@ -3436,19 +3436,19 @@
         <v>494163</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>455848</v>
+        <v>455304</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>539552</v>
+        <v>534853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2072974749174372</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1912246149577038</v>
+        <v>0.1909965717909498</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2263376970630482</v>
+        <v>0.2243664449546204</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>911163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>883375</v>
+        <v>882458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>936879</v>
+        <v>935523</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8085820205844996</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7839225880809426</v>
+        <v>0.7831084897426225</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8314031809555179</v>
+        <v>0.8301999544918989</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>916</v>
@@ -3486,19 +3486,19 @@
         <v>978509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>946448</v>
+        <v>946807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1007586</v>
+        <v>1007914</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7784666624251896</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7529595133666341</v>
+        <v>0.753245119050274</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8015988438701351</v>
+        <v>0.8018602347265502</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1781</v>
@@ -3507,19 +3507,19 @@
         <v>1889672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1844283</v>
+        <v>1848982</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1927987</v>
+        <v>1928531</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7927025250825628</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7736623029369518</v>
+        <v>0.7756335550453797</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8087753850422963</v>
+        <v>0.8090034282090502</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>161061</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>138251</v>
+        <v>139387</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>183955</v>
+        <v>182654</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1776413791602851</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1524837210420868</v>
+        <v>0.1537361509466775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2028924708810598</v>
+        <v>0.2014574027634418</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>217</v>
@@ -3632,19 +3632,19 @@
         <v>223950</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>196219</v>
+        <v>196494</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>250595</v>
+        <v>251138</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2238756028138196</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1961538689986729</v>
+        <v>0.1964288681917244</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2505120515563426</v>
+        <v>0.2510544056333393</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>377</v>
@@ -3653,19 +3653,19 @@
         <v>385011</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>352099</v>
+        <v>353039</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>421442</v>
+        <v>421049</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2018939579388367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1846355311711524</v>
+        <v>0.1851286204674205</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2209979020738051</v>
+        <v>0.2207921022954862</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>745602</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>722708</v>
+        <v>724009</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>768412</v>
+        <v>767276</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8223586208397149</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7971075291189402</v>
+        <v>0.7985425972365576</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8475162789579133</v>
+        <v>0.8462638490533224</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>728</v>
@@ -3703,19 +3703,19 @@
         <v>776381</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>749736</v>
+        <v>749193</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>804112</v>
+        <v>803837</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7761243971861804</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7494879484436574</v>
+        <v>0.7489455943666607</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8038461310013271</v>
+        <v>0.8035711318082757</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1447</v>
@@ -3724,19 +3724,19 @@
         <v>1521984</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1485553</v>
+        <v>1485946</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1554896</v>
+        <v>1553956</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7981060420611633</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.779002097926195</v>
+        <v>0.7792078977045137</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8153644688288478</v>
+        <v>0.8148713795325795</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>124654</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103825</v>
+        <v>106307</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146774</v>
+        <v>146841</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1521490007231879</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1267267818262472</v>
+        <v>0.1297553509854152</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1791485357094564</v>
+        <v>0.1792309144078401</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>152</v>
@@ -3849,19 +3849,19 @@
         <v>160449</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>139762</v>
+        <v>137881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>185283</v>
+        <v>184579</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2083541668476582</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1814901145904533</v>
+        <v>0.1790481022177183</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.240603284411142</v>
+        <v>0.2396891730340719</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>268</v>
@@ -3870,19 +3870,19 @@
         <v>285103</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>252704</v>
+        <v>254122</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>314837</v>
+        <v>317333</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1793815036028976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1589967797733517</v>
+        <v>0.1598889908091693</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1980900073530938</v>
+        <v>0.1996605692637511</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>694632</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>672512</v>
+        <v>672445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>715461</v>
+        <v>712979</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8478509992768121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8208514642905436</v>
+        <v>0.8207690855921598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8732732181737527</v>
+        <v>0.8702446490145846</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>575</v>
@@ -3920,19 +3920,19 @@
         <v>609629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>584795</v>
+        <v>585499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>630316</v>
+        <v>632197</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7916458331523418</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.759396715588858</v>
+        <v>0.7603108269659282</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8185098854095467</v>
+        <v>0.8209518977822818</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1242</v>
@@ -3941,19 +3941,19 @@
         <v>1304261</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1274527</v>
+        <v>1272031</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1336660</v>
+        <v>1335242</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8206184963971024</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8019099926469062</v>
+        <v>0.800339430736249</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8410032202266483</v>
+        <v>0.8401110091908307</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>111264</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>92882</v>
+        <v>92651</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>129474</v>
+        <v>131539</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.220046371768007</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1836915303986912</v>
+        <v>0.1832351144599857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2560591866880385</v>
+        <v>0.260142279092053</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>135</v>
@@ -4066,19 +4066,19 @@
         <v>147685</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>128984</v>
+        <v>126575</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170241</v>
+        <v>169201</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3036815145209114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2652271553941329</v>
+        <v>0.2602727851917954</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3500633448091238</v>
+        <v>0.347925288666835</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>236</v>
@@ -4087,19 +4087,19 @@
         <v>258949</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>232313</v>
+        <v>232278</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>289746</v>
+        <v>289373</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2610492040464298</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2341970679775324</v>
+        <v>0.2341614650878632</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.292095656428789</v>
+        <v>0.2917196485185425</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>394377</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>376167</v>
+        <v>374102</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>412759</v>
+        <v>412990</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7799536282319931</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7439408133119615</v>
+        <v>0.739857720907947</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8163084696013089</v>
+        <v>0.8167648855400141</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -4137,19 +4137,19 @@
         <v>338630</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>316074</v>
+        <v>317114</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>357331</v>
+        <v>359740</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6963184854790886</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6499366551908762</v>
+        <v>0.6520747113331651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7347728446058668</v>
+        <v>0.7397272148082049</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>686</v>
@@ -4158,19 +4158,19 @@
         <v>733007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>702210</v>
+        <v>702583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>759643</v>
+        <v>759678</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7389507959535702</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7079043435712109</v>
+        <v>0.7082803514814575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7658029320224676</v>
+        <v>0.7658385349121367</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>612681</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>571013</v>
+        <v>570821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>660417</v>
+        <v>663164</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1824294506609533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1700223356605469</v>
+        <v>0.1699651665084343</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1966431754270936</v>
+        <v>0.1974610428025123</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>773</v>
@@ -4283,19 +4283,19 @@
         <v>810544</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>760073</v>
+        <v>758422</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>860140</v>
+        <v>862071</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2306815221121306</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2163174441413067</v>
+        <v>0.2158476048609347</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2447965640804446</v>
+        <v>0.2453461986925473</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1350</v>
@@ -4304,19 +4304,19 @@
         <v>1423226</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1355311</v>
+        <v>1360039</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1491404</v>
+        <v>1501645</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2071004798272016</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1972178856782228</v>
+        <v>0.197905866075049</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2170214937470842</v>
+        <v>0.2185117380317729</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2745775</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2698039</v>
+        <v>2695292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2787443</v>
+        <v>2787635</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8175705493390467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8033568245729064</v>
+        <v>0.8025389571974875</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8299776643394529</v>
+        <v>0.8300348334915657</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2536</v>
@@ -4354,19 +4354,19 @@
         <v>2703150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2653554</v>
+        <v>2651623</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2753621</v>
+        <v>2755272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7693184778878694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7552034359195552</v>
+        <v>0.7546538013074527</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7836825558586933</v>
+        <v>0.7841523951390653</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5156</v>
@@ -4375,19 +4375,19 @@
         <v>5448924</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5380746</v>
+        <v>5370505</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5516839</v>
+        <v>5512111</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7928995201727984</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7829785062529157</v>
+        <v>0.7814882619682273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8027821143217772</v>
+        <v>0.802094133924951</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>57429</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43047</v>
+        <v>42798</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>73853</v>
+        <v>74741</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1154885947027607</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08656613331662331</v>
+        <v>0.0860657206495776</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1485170086030874</v>
+        <v>0.1503026488535742</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>130</v>
@@ -4740,19 +4740,19 @@
         <v>104292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>89845</v>
+        <v>87285</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124932</v>
+        <v>121931</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1672476779049525</v>
+        <v>0.1672476779049524</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1440796458650197</v>
+        <v>0.13997351501911</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2003469214133988</v>
+        <v>0.1955339727732575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -4761,19 +4761,19 @@
         <v>161722</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>141955</v>
+        <v>140642</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>186992</v>
+        <v>187578</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1442844685895879</v>
+        <v>0.1442844685895878</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1266489605811291</v>
+        <v>0.1254772717494541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1668298581681686</v>
+        <v>0.1673531040081396</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>439844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423420</v>
+        <v>422532</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>454226</v>
+        <v>454475</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8845114052972393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8514829913969131</v>
+        <v>0.8496973511464256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9134338666833768</v>
+        <v>0.9139342793504222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>731</v>
@@ -4811,19 +4811,19 @@
         <v>519288</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>498648</v>
+        <v>501649</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>533735</v>
+        <v>536295</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8327523220950473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7996530785866007</v>
+        <v>0.8044660272267424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8559203541349805</v>
+        <v>0.8600264849808898</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1133</v>
@@ -4832,19 +4832,19 @@
         <v>959131</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>933861</v>
+        <v>933275</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>978898</v>
+        <v>980211</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8557155314104121</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8331701418318305</v>
+        <v>0.8326468959918601</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8733510394188705</v>
+        <v>0.8745227282505456</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>140936</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>117576</v>
+        <v>118547</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>166831</v>
+        <v>168853</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.147100361180446</v>
+        <v>0.1471003611804459</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1227185319147712</v>
+        <v>0.123732351003834</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1741280741198048</v>
+        <v>0.1762378903008943</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>296</v>
@@ -4957,19 +4957,19 @@
         <v>225095</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>201025</v>
+        <v>202151</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>248866</v>
+        <v>252106</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2017255730685676</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1801544653800053</v>
+        <v>0.1811635654600099</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2230281278136767</v>
+        <v>0.225932209430583</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>417</v>
@@ -4978,19 +4978,19 @@
         <v>366031</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>333669</v>
+        <v>330210</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>402527</v>
+        <v>400256</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1764904960137549</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1608861209789506</v>
+        <v>0.1592183673077918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1940876254944885</v>
+        <v>0.1929925405549821</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>817159</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>791264</v>
+        <v>789242</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>840519</v>
+        <v>839548</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8528996388195541</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8258719258801952</v>
+        <v>0.8237621096991056</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8772814680852288</v>
+        <v>0.8762676489961659</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1311</v>
@@ -5028,19 +5028,19 @@
         <v>890754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>866983</v>
+        <v>863743</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>914824</v>
+        <v>913698</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7982744269314322</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7769718721863234</v>
+        <v>0.7740677905694168</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8198455346199945</v>
+        <v>0.8188364345399901</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2098</v>
@@ -5049,19 +5049,19 @@
         <v>1707913</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1671417</v>
+        <v>1673688</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1740275</v>
+        <v>1743734</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.823509503986245</v>
+        <v>0.8235095039862451</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8059123745055116</v>
+        <v>0.8070074594450178</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8391138790210495</v>
+        <v>0.840781632692208</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>161358</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>134663</v>
+        <v>135330</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>193805</v>
+        <v>190038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1545581511002906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1289880374505794</v>
+        <v>0.129627338317043</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1856375696831155</v>
+        <v>0.1820297671661436</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>270</v>
@@ -5174,19 +5174,19 @@
         <v>213719</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189756</v>
+        <v>191191</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>239137</v>
+        <v>238821</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2046117392140998</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1816701781491832</v>
+        <v>0.1830437976609743</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2289464268816739</v>
+        <v>0.2286441650468933</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>398</v>
@@ -5195,19 +5195,19 @@
         <v>375077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>340581</v>
+        <v>340044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>414714</v>
+        <v>412964</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1795911005433093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1630742515459035</v>
+        <v>0.162817086388533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1985700115449383</v>
+        <v>0.1977320105763701</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>882638</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>850191</v>
+        <v>853958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>909333</v>
+        <v>908666</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8454418488997095</v>
+        <v>0.8454418488997094</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8143624303168846</v>
+        <v>0.8179702328338565</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8710119625494205</v>
+        <v>0.8703726616829569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1243</v>
@@ -5245,19 +5245,19 @@
         <v>830790</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>805372</v>
+        <v>805688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>854753</v>
+        <v>853318</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7953882607859003</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7710535731183262</v>
+        <v>0.7713558349531068</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8183298218508168</v>
+        <v>0.8169562023390263</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2142</v>
@@ -5266,19 +5266,19 @@
         <v>1713428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1673791</v>
+        <v>1675541</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1747924</v>
+        <v>1748461</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8204088994566908</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8014299884550617</v>
+        <v>0.8022679894236296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8369257484540965</v>
+        <v>0.837182913611467</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>155256</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>130825</v>
+        <v>131174</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186132</v>
+        <v>184328</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1600105557993913</v>
+        <v>0.1600105557993914</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1348313111381819</v>
+        <v>0.1351911712113611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1918317226176013</v>
+        <v>0.1899723487864693</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>263</v>
@@ -5391,19 +5391,19 @@
         <v>198689</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>176479</v>
+        <v>176615</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>222420</v>
+        <v>222364</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2200338816153792</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1954385672292352</v>
+        <v>0.1955888608205961</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2463142261739972</v>
+        <v>0.2462525964083024</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>403</v>
@@ -5412,19 +5412,19 @@
         <v>353945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>323649</v>
+        <v>321333</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>391018</v>
+        <v>388159</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.188944076423737</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1727716732538334</v>
+        <v>0.1715350862702622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2087343724603147</v>
+        <v>0.207208419372974</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>815031</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>784155</v>
+        <v>785959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>839462</v>
+        <v>839113</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8399894442006087</v>
+        <v>0.8399894442006085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8081682773823987</v>
+        <v>0.8100276512135308</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8651686888618183</v>
+        <v>0.8648088287886392</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1049</v>
@@ -5462,19 +5462,19 @@
         <v>704302</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>680571</v>
+        <v>680627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>726512</v>
+        <v>726376</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7799661183846208</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7536857738260029</v>
+        <v>0.7537474035916977</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8045614327707648</v>
+        <v>0.804411139179404</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1851</v>
@@ -5483,19 +5483,19 @@
         <v>1519333</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1482260</v>
+        <v>1485119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1549629</v>
+        <v>1551945</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8110559235762629</v>
+        <v>0.811055923576263</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7912656275396853</v>
+        <v>0.792791580627026</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8272283267461665</v>
+        <v>0.828464913729738</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>514980</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>467988</v>
+        <v>464410</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>563333</v>
+        <v>561650</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1484240739911604</v>
+        <v>0.1484240739911605</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.134880548138616</v>
+        <v>0.1338492131863216</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1623601465664162</v>
+        <v>0.1618749922947869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>959</v>
@@ -5608,19 +5608,19 @@
         <v>741795</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>698515</v>
+        <v>695280</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>786787</v>
+        <v>787291</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2011958991028963</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1894570427535001</v>
+        <v>0.1885795888089772</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2133990699096183</v>
+        <v>0.2135357222623812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1400</v>
@@ -5629,19 +5629,19 @@
         <v>1256775</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1194757</v>
+        <v>1195945</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1327836</v>
+        <v>1326415</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1756110842099459</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1669453116134526</v>
+        <v>0.1671112565667829</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1855406175299114</v>
+        <v>0.185342000881021</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2954670</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2906317</v>
+        <v>2908000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3001662</v>
+        <v>3005240</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8515759260088396</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8376398534335837</v>
+        <v>0.838125007705213</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8651194518613841</v>
+        <v>0.8661507868136785</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4334</v>
@@ -5679,19 +5679,19 @@
         <v>2945135</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2900143</v>
+        <v>2899639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2988415</v>
+        <v>2991650</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7988041008971037</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7866009300903818</v>
+        <v>0.7864642777376188</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8105429572464999</v>
+        <v>0.8114204111910226</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7224</v>
@@ -5700,19 +5700,19 @@
         <v>5899805</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5828744</v>
+        <v>5830165</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5961823</v>
+        <v>5960635</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.824388915790054</v>
+        <v>0.8243889157900539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8144593824700884</v>
+        <v>0.8146579991189792</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8330546883865474</v>
+        <v>0.8328887434332172</v>
       </c>
     </row>
     <row r="18">
